--- a/assets/file/data_rule.xlsx
+++ b/assets/file/data_rule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\xampp\htdocs\sistemdiagnosis\assets\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF835270-0CF9-4040-85BE-E7850A580514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1EA54A-EAC3-45A0-9585-912771E6A90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{CF3A70D0-0A15-4A96-9531-10EBE60103BA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Code</t>
   </si>
@@ -120,6 +120,27 @@
   </si>
   <si>
     <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R27</t>
+  </si>
+  <si>
+    <t>R28</t>
+  </si>
+  <si>
+    <t>R29</t>
+  </si>
+  <si>
+    <t>R30</t>
+  </si>
+  <si>
+    <t>R31</t>
+  </si>
+  <si>
+    <t>R32</t>
   </si>
 </sst>
 </file>
@@ -182,12 +203,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2896E4-EAB5-4FC8-A81C-10D496DEDCD4}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -880,6 +902,104 @@
         <v>18</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C27" s="2">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2">
+        <v>11</v>
+      </c>
+      <c r="D31" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C33" s="2">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
